--- a/NIST Extractor Config File.xlsx
+++ b/NIST Extractor Config File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finn\PycharmProjects\Nist Extractor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE889432-C453-4B63-B79C-FB825BCAEECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75494596-24CB-4089-99F8-A8C1A2863902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6FD3D569-E216-4B5C-926C-A92474484F2E}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="128">
   <si>
     <t>Fluid</t>
   </si>
@@ -409,6 +409,21 @@
   </si>
   <si>
     <t>Conditions</t>
+  </si>
+  <si>
+    <t>For isobaric data, enter the same pressure in high and low, with an increment of 1</t>
+  </si>
+  <si>
+    <t>For isothermic data, enter the same temperature in high and low, with an increment of 1</t>
+  </si>
+  <si>
+    <t>Must be ≥ PLow</t>
+  </si>
+  <si>
+    <t>Must be &gt; 0</t>
+  </si>
+  <si>
+    <t>Must be ≥ TLow</t>
   </si>
 </sst>
 </file>
@@ -832,19 +847,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9254153C-E4E2-4400-8BF6-4B08B8A2E240}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.796875" customWidth="1"/>
+    <col min="4" max="4" width="73.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>114</v>
       </c>
@@ -852,13 +868,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>80</v>
       </c>
@@ -866,7 +884,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>81</v>
       </c>
@@ -874,7 +892,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>82</v>
       </c>
@@ -882,7 +900,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>83</v>
       </c>
@@ -890,7 +908,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>84</v>
       </c>
@@ -898,7 +916,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>85</v>
       </c>
@@ -906,7 +924,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>86</v>
       </c>
@@ -914,53 +932,116 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" t="str">
+        <f>B4</f>
+        <v>bar</v>
+      </c>
+      <c r="D12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+      <c r="C13" t="str">
+        <f>B4</f>
+        <v>bar</v>
+      </c>
+      <c r="D13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" t="str">
+        <f>B4</f>
+        <v>bar</v>
+      </c>
+      <c r="D14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>50</v>
+      </c>
+      <c r="C15" t="str">
+        <f>B3</f>
+        <v>K</v>
+      </c>
+      <c r="D15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>50</v>
+      </c>
+      <c r="C16" t="str">
+        <f>B3</f>
+        <v>K</v>
+      </c>
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" t="str">
+        <f>B3</f>
+        <v>K</v>
+      </c>
+      <c r="D17" t="s">
+        <v>126</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:B14 B16:B17 B15" xr:uid="{1252F97D-6517-4DF1-B816-975C829670CF}">
+  <dataValidations count="4">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14" xr:uid="{1252F97D-6517-4DF1-B816-975C829670CF}">
       <formula1>0</formula1>
       <formula2>99999</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17" xr:uid="{3967B8B9-2659-4FC7-820D-D3767241D425}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13 B16" xr:uid="{82D40D77-1CB9-418F-8569-A799B78197C4}">
+      <formula1>B12</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12 B15" xr:uid="{21B896E5-D9AA-41A7-8159-7468AC6B56D5}">
+      <formula1>B13</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NIST Extractor Config File.xlsx
+++ b/NIST Extractor Config File.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finn\PycharmProjects\Nist Extractor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75494596-24CB-4089-99F8-A8C1A2863902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79989EF4-8160-44DD-9E93-5A9046618742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6FD3D569-E216-4B5C-926C-A92474484F2E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6FD3D569-E216-4B5C-926C-A92474484F2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -850,17 +850,17 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.796875" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
     <col min="4" max="4" width="73.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>114</v>
       </c>
@@ -868,7 +868,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -876,7 +876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>80</v>
       </c>
@@ -884,7 +884,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>81</v>
       </c>
@@ -892,7 +892,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>82</v>
       </c>
@@ -900,7 +900,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>83</v>
       </c>
@@ -908,7 +908,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>84</v>
       </c>
@@ -916,7 +916,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>85</v>
       </c>
@@ -924,7 +924,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>86</v>
       </c>
@@ -932,13 +932,13 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>117</v>
       </c>
@@ -953,7 +953,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>116</v>
       </c>
@@ -968,7 +968,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>118</v>
       </c>
@@ -983,12 +983,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B15" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C15" t="str">
         <f>B3</f>
@@ -998,12 +998,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B16" s="3">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="C16" t="str">
         <f>B3</f>
@@ -1013,7 +1013,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>121</v>
       </c>
@@ -1110,12 +1110,12 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1238,347 +1238,347 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>75</v>
       </c>
